--- a/final_results/1/gitlab/gitlab_stage_statistics.xlsx
+++ b/final_results/1/gitlab/gitlab_stage_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="7">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -664,6 +664,3386 @@
       </c>
       <c r="C18" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>triage</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>after_script</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>push</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>pull_request</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>publish</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>archive</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>prebuild</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>container</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>style</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>issues</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>pull_request_target</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>builds</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>sanity_checks</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>release</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>34</v>
+      </c>
+      <c r="C34" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>quality-assurance</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>externalbuild</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>externalpostbuild</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>stage_build_docker</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>stage_push_docker</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>stage_build_documentation</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>stage_push_documentation</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>stage_build_python</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>stage_push_python</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>stage_test</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>stage_deploy</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>tarball</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>compile</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>snapshot</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>paperwork</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>trigger</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>export</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>automation</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>notify</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>images</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>checkicons</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>pages</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>lint</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>15</v>
+      </c>
+      <c r="C60" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>clean_up</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>build_test</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>package</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>15</v>
+      </c>
+      <c r="C63" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>generate_test_data</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>coverage_report</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>upload_report</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>build-backend</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>deploy-backend</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>provision-backend</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>build-frontend</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>deploy-frontend</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>confidence-check</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>staging</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>linux build</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>darwin build</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>linux shell</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>darwin shell</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>push artifacts</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>fstest</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>post-test</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>static_check</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>build_and_test</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4</v>
+      </c>
+      <c r="C86" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>docker-image</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>cudnn</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>scan</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>cleanup_success</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>cleanup_failure</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>vendors</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>checks</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>finalization</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>multi-arch</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>validate_deploy</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>build-docker</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>build-_new</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>test-docker</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>push-docker</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>push-docker-master</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>save-to-cubi</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>cleanup-review</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>cleanup-staging</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>stage1-testing</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>stage2-tarball</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>ci-build</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>clickbuild</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>build_unit_test</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>pre_deploy</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>docker_images</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>build_image</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>code_standarts</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>dist</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>staging-release</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>preflight</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>stable</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>specs</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>release-package</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>static</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>sentry_release</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>sanitychecks</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>int-test</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>release-docker</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>verify</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>manually_triggered_tests</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>scheduled_monitoring_tests</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>smoke_tests</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>deploy_staging</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>build_production</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>deploy_production</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>build-app</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>build-image</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>flatpak</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>snap</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>vm</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>prepare-publish</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>finish-publish</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>reproducible</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>❄️ snowflake</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>🛑 snowflake stop</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>🐍 python</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>📚 dbt docs</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>triage run</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>bench</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>static-analysis</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>docs</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>shellcheck</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>triggers</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>.post</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>dist-linux-amd64</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>unit-tests</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>advanced_build</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>coverage</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>build-src</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>go-test</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>go-fmt</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>docker-registry-master</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>docker-registry-tags</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>tiki-check</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>package-tiki</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>vendors-security</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>vendors_update</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>.pre</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>4</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>venv-setup</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>post-run</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>buildx</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>build_latest</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>workflow_dispatch</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>pre-commit</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>generate-release</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>chore</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>static_analysis</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>installation</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>distribution</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>dependencies</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+      <c r="C192" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>internal</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>schedule</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>testbuild</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>buildrelease</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>deps</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>deps-prepare</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>ade</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>build_pypi</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>doc</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>5</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>vars</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>build-containers</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>eslint</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>bitrisebuildandroid</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>post-merge</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>pre-merge</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>analyse</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>failed_stage</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>upload</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>prod_deploy</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>admin_test_deploy</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>admin_prod_deploy</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>reports</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>build_report_application</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>lint_test_coverage</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>siril</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>packaging</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>setup</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>compatibility</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>deb</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>deploy:staging</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>deploy:canary</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>deploy:production</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+      <c r="C228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>test and build</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>uploadstore</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>build-dev</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>build-staging</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>execute-change-prod</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>deploy-staging</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>create-change-prod</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>deploy-dev</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>build-final</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>installer</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+      <c r="C238" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>testinstaller</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>page_deploy</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>release-note</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>exe</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>zip</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>ftp</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>destroy</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>build-binary</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>repository</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>infrastructure</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>restart</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>linting</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>generate_documentation</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>build-docs</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>zenodo</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>build_docker</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>build_and_deploy_docker</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>build_and_deploy_website</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>setup:prod</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>migrate:prod</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>build:prod</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>deploy:prod</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>qual</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>smoke-test</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>build_netbsd</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>pre_build</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>unit_test</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+      <c r="C270" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>extras</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+      <c r="C271" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>check_suite</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>multiver-test</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>mirror</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>prepare_docker</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>check_format</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>regression_tests</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>build_cmake</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/final_results/1/gitlab/gitlab_stage_statistics.xlsx
+++ b/final_results/1/gitlab/gitlab_stage_statistics.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" t="n">
         <v>1077</v>
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C12" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2483,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="C158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">

--- a/final_results/1/gitlab/gitlab_stage_statistics.xlsx
+++ b/final_results/1/gitlab/gitlab_stage_statistics.xlsx
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         <v>180</v>
       </c>
       <c r="C4" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="7">
@@ -585,7 +585,7 @@
         <v>202</v>
       </c>
       <c r="C12" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17">
@@ -3312,10 +3312,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">

--- a/final_results/1/gitlab/gitlab_stage_statistics.xlsx
+++ b/final_results/1/gitlab/gitlab_stage_statistics.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/tfg-ci/Pruebas_finales/1/results/gitlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6677B4A-60F7-2342-B539-9CF129157D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCECB0-D3BA-DC41-A6F5-0859184E598B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35260" yWindow="1740" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$274</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -920,6 +923,1053 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Num_projects_using</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>build</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>script</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>before_script</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>deploy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>release</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A76-7942-AC04-D06633ADC30F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total_stages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A76-7942-AC04-D06633ADC30F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1594508767"/>
+        <c:axId val="1623746895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1594508767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1623746895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1623746895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594508767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4AA0BC-8CC7-CD4F-BF9D-1B821A777008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1210,7 +2260,7 @@
   <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1230,24 +2280,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C2">
-        <v>1075</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>715</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1263,219 +2313,219 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C5">
-        <v>354</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C6">
-        <v>225</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>156</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>132</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>270</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>21</v>
@@ -1483,271 +2533,271 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
         <v>7</v>
-      </c>
-      <c r="C33">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
         <v>5</v>
-      </c>
-      <c r="C35">
-        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1758,10 +2808,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1769,623 +2819,623 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
         <v>3</v>
-      </c>
-      <c r="C58">
-        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -2396,7 +3446,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -2407,7 +3457,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -2418,7 +3468,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2429,7 +3479,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -2440,7 +3490,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -2451,7 +3501,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -2462,145 +3512,145 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -4233,9 +5283,10 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C274">
+    <sortCondition descending="1" ref="B2:B274"/>
     <sortCondition descending="1" ref="C2:C274"/>
-    <sortCondition descending="1" ref="B2:B274"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>